--- a/data/output/set50/high_noisy/results/ssim.xlsx
+++ b/data/output/set50/high_noisy/results/ssim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779680BD-7EB9-4134-9580-728239C0732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6C1A0-11B4-4DB2-92D9-AA76A712EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssim_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>ssim_bm3d</t>
+  </si>
+  <si>
+    <t>ssim_dual</t>
   </si>
 </sst>
 </file>
@@ -413,577 +416,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.58989563</v>
+      </c>
+      <c r="B2">
         <v>0.88203600000000004</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.86898134000000005</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.93449289999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.67001040999999995</v>
+      </c>
+      <c r="B3">
         <v>0.88720765000000001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.89279390999999997</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.92412799000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.60406223000000003</v>
+      </c>
+      <c r="B4">
         <v>0.79126085999999995</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.80553123999999998</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.84856176000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.57022952000000005</v>
+      </c>
+      <c r="B5">
         <v>0.82092609999999999</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.81144316000000005</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.87240678000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.57456998999999997</v>
+      </c>
+      <c r="B6">
         <v>0.78682830999999998</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.79566517000000003</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.84236180000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.61981388000000004</v>
+      </c>
+      <c r="B7">
         <v>0.81622823</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.83547020000000005</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.88234972</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.64309300000000003</v>
+      </c>
+      <c r="B8">
         <v>0.83919999000000001</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.83210735000000002</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.87645611999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.75403390999999997</v>
+      </c>
+      <c r="B9">
         <v>0.82981525</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.84592266000000005</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.84563642000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.75266655000000005</v>
+      </c>
+      <c r="B10">
         <v>0.83956867000000002</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.83476578000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.88442761999999997</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.65407048000000001</v>
+      </c>
+      <c r="B11">
         <v>0.85855015999999995</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.84837857000000005</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.88787709000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.52980380000000005</v>
+      </c>
+      <c r="B12">
         <v>0.87584563999999998</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.86955963000000003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.91720429999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.79984374999999996</v>
+      </c>
+      <c r="B13">
         <v>0.85717712999999995</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.86818598999999996</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.88200877</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.68108995000000006</v>
+      </c>
+      <c r="B14">
         <v>0.77589735999999998</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.79348980999999996</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.82405945999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.61069605999999999</v>
+      </c>
+      <c r="B15">
         <v>0.85643994000000001</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.85846261000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.91372516000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.79956828000000002</v>
+      </c>
+      <c r="B16">
         <v>0.84340859999999995</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.84350943</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.8307312</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.68525809000000004</v>
+      </c>
+      <c r="B17">
         <v>0.82339468000000005</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.81776203000000003</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.84123099000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.77770578000000001</v>
+      </c>
+      <c r="B18">
         <v>0.80114774</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.79699991000000003</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.66293621999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.77537922999999997</v>
+      </c>
+      <c r="B19">
         <v>0.79620546000000003</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.82253138999999997</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.83914014999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.76605701000000004</v>
+      </c>
+      <c r="B20">
         <v>0.83634174999999999</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.83458913999999995</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.81035683999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.70625411999999999</v>
+      </c>
+      <c r="B21">
         <v>0.81476771000000003</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.83016893999999997</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.86524599999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.68403398000000004</v>
+      </c>
+      <c r="B22">
         <v>0.80199595999999995</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.80294734000000001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.82631167999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.54979301999999997</v>
+      </c>
+      <c r="B23">
         <v>0.81037274000000004</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.78561512</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.84304500000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.57080569999999997</v>
+      </c>
+      <c r="B24">
         <v>0.81528893999999996</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.77369675999999998</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.78738646000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.45926551999999998</v>
+      </c>
+      <c r="B25">
         <v>0.86236979999999996</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.83572974</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.90727690999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.53817833000000004</v>
+      </c>
+      <c r="B26">
         <v>0.82078183000000005</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.79553684000000002</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.86306910000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.45542998000000001</v>
+      </c>
+      <c r="B27">
         <v>0.84222631999999997</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.80203091000000004</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.88927555999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.52625016000000002</v>
+      </c>
+      <c r="B28">
         <v>0.78626273999999996</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.78507099000000002</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.84449647000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.48286651000000003</v>
+      </c>
+      <c r="B29">
         <v>0.87642920000000002</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.84680513000000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.90243843000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.51417950999999995</v>
+      </c>
+      <c r="B30">
         <v>0.80824496000000001</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.79233940999999997</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.84807105000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.78811969999999998</v>
+      </c>
+      <c r="B31">
         <v>0.78584480000000001</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.80986656999999995</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.71908907</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.68301993000000005</v>
+      </c>
+      <c r="B32">
         <v>0.78621600000000003</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.79728489000000002</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.82173065000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.79555133</v>
+      </c>
+      <c r="B33">
         <v>0.82770701999999996</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.82583260999999997</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.72300876000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.69489650000000003</v>
+      </c>
+      <c r="B34">
         <v>0.72544931999999995</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.73896660999999997</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.7468648</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.63523816</v>
+      </c>
+      <c r="B35">
         <v>0.76553782000000004</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.78092760000000006</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.81029178000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.73165648999999999</v>
+      </c>
+      <c r="B36">
         <v>0.80086789000000003</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.82682316</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.83972069000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.60330846999999999</v>
+      </c>
+      <c r="B37">
         <v>0.83648325999999995</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.83484113000000004</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.85894585999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.73612842000000001</v>
+      </c>
+      <c r="B38">
         <v>0.81904756999999995</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.84884031000000004</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.87188158999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.61764971000000002</v>
+      </c>
+      <c r="B39">
         <v>0.73623435999999998</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.74112369</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.73894271</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.56887445999999997</v>
+      </c>
+      <c r="B40">
         <v>0.82471841999999995</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.81972961</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.87233441</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.49888159999999998</v>
+      </c>
+      <c r="B41">
         <v>0.86081666999999995</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.82162765000000004</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.89043170000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.49320227999999999</v>
+      </c>
+      <c r="B42">
         <v>0.78997276999999999</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.78003504000000001</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.84903744999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.63520029</v>
+      </c>
+      <c r="B43">
         <v>0.81383481999999996</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.83528438000000005</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.87611483000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.60815931999999995</v>
+      </c>
+      <c r="B44">
         <v>0.81211809999999995</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.82447322000000001</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.84519301000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.63034171000000006</v>
+      </c>
+      <c r="B45">
         <v>0.85846281000000002</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.87218912000000004</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.91649804999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.92437647999999994</v>
+      </c>
+      <c r="B46">
         <v>0.92275576000000004</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.90737489000000005</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.74770360999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.61072804000000003</v>
+      </c>
+      <c r="B47">
         <v>0.81899454000000005</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.82248494999999999</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.85373197999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.75338037999999996</v>
+      </c>
+      <c r="B48">
         <v>0.81416575999999996</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.83534478999999995</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.84298172999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.75603717000000004</v>
+      </c>
+      <c r="B49">
         <v>0.82317399999999996</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.83802224999999997</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.82808150999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.58176901999999997</v>
+      </c>
+      <c r="B50">
         <v>0.85397506999999995</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.85471414999999995</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.90737871000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.73021526999999997</v>
+      </c>
+      <c r="B51">
         <v>0.91418047999999996</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.90642747000000001</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.95632634000000005</v>
       </c>
     </row>
